--- a/ProbabilityAndStatistics/final/Ejercicio 25 Prueba de Bondad de Ajuste para los datos.xlsx
+++ b/ProbabilityAndStatistics/final/Ejercicio 25 Prueba de Bondad de Ajuste para los datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\ULSA-6th-Semester\ProbabilityAndStatistics\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Sem6ULSA\ULSA-6th-Semester\ProbabilityAndStatistics\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6DC1A38-5B1A-442F-A991-9495B00B1D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5EFF19-251B-4DC1-9092-5A843A4B9CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Datos</t>
   </si>
@@ -187,14 +187,32 @@
   <si>
     <t>WC NO es mayor o igual a Wta por lo que RECHAZAMOS H0 con un nivel de confianza del 95%</t>
   </si>
+  <si>
+    <t>ai(n, alfa)</t>
+  </si>
+  <si>
+    <t>x(n−i+1)​−x(i) * ai</t>
+  </si>
+  <si>
+    <t>x palito(media x)</t>
+  </si>
+  <si>
+    <t>Wta</t>
+  </si>
+  <si>
+    <t>WC &gt;= Wta</t>
+  </si>
+  <si>
+    <t>ENTONCES NO RECHAZAMOS A H0 CON UN NC DE 95%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="174" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -299,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,29 +338,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,16 +392,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>318039</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546639</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>81996</xdr:rowOff>
+      <xdr:rowOff>43896</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -396,7 +424,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="4400550"/>
+          <a:off x="6438900" y="4362450"/>
           <a:ext cx="6194964" cy="1586946"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -674,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B608"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A581" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3730,120 +3758,557 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <f>$A$21</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22.3</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B5^2</f>
+        <v>497.29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <f>B21-B5</f>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5*E5</f>
+        <v>1.1923199999999994</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:C21" si="0">B6^2</f>
+        <v>510.76000000000005</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B20-B6</f>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G21" si="1">F6*E6</f>
+        <v>0.589139999999999</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>510.76000000000005</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.254</v>
+      </c>
+      <c r="F7" s="1">
+        <f>B19-B7</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43179999999999985</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="M7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>519.84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.1988</v>
+      </c>
+      <c r="F8" s="1">
+        <f>B18-B8</f>
+        <v>1.0999999999999979</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21867999999999957</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>524.41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <f>B17-B9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20">
+        <f>AVERAGE(B5:B21)</f>
+        <v>23.429411764705875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>524.41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1109</v>
+      </c>
+      <c r="F10" s="1">
+        <f>B16-B10</f>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9810000000000232E-2</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="K10" s="18"/>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>23.1</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>533.61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f>B15-B11</f>
+        <v>0.59999999999999787</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999844E-2</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20">
+        <f>C23-A21*K9^2</f>
+        <v>7.7352941176541208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>542.89</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <f>B14-B12</f>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0770000000000026E-2</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="K12" s="18"/>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>552.25</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f>B13-B13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20">
+        <f>G23^2/K11</f>
+        <v>0.96944524440063429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>556.96</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>561.68999999999994</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>566.44000000000005</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>571.20999999999992</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>23.9</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>571.20999999999992</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>590.49</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
         <v>24.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>595.3599999999999</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>23.9</v>
-      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>610.08999999999992</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="1">
+        <f>SUM(B5:B21)</f>
+        <v>398.2999999999999</v>
+      </c>
+      <c r="C23" s="17">
+        <f>SUM(C5:C21)</f>
+        <v>9339.67</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="1">
+        <f>SUM(G5:G13)</f>
+        <v>2.7384199999999979</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="7"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B21">
+    <sortCondition ref="B5:B21"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4682,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -4233,7 +4698,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -4249,7 +4714,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -4265,7 +4730,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -4281,7 +4746,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -4296,9 +4761,8 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -4315,7 +4779,7 @@
       <c r="G22" s="5"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -4331,7 +4795,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -4347,7 +4811,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -4363,7 +4827,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -4379,7 +4843,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -4395,7 +4859,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -4411,7 +4875,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -4427,7 +4891,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -4443,7 +4907,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f>SUM(B5:B30)</f>
         <v>156</v>
@@ -4458,55 +4922,55 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="E34" s="13" t="s">
+      <c r="C34" s="10"/>
+      <c r="E34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="J34" s="12" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="J34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="12"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+      <c r="B35" s="14">
         <f>AVERAGE(B5:B30)</f>
         <v>6</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="E35" s="14" t="s">
+      <c r="C35" s="14"/>
+      <c r="E35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="C37" s="10"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="J37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
+      <c r="B38" s="14">
         <f>C31-A30*B35^2</f>
         <v>142</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
@@ -4514,23 +4978,23 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <f>G31^2/B38</f>
         <v>0.86673828169014044</v>
       </c>
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
@@ -4545,6 +5009,8 @@
     </sortState>
   </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B44:C44"/>
@@ -4554,8 +5020,6 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
